--- a/medicine/Sexualité et sexologie/Shortbus/Shortbus.xlsx
+++ b/medicine/Sexualité et sexologie/Shortbus/Shortbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shortbus est un film américain réalisé par John Cameron Mitchell sorti en 2006. Il est sorti officiellement en salle en octobre 2006, après avoir été présenté au mois de mai de la même année au festival de Cannes.
 Le film cherche à « démystifier » le sexe[réf. souhaitée] en le montrant à l'écran dans plusieurs scènes de façon explicite. À l'exception d'une scène selon le réalisateur, les scènes sexuelles du film ne sont pas simulées, y compris les scènes d'orgie. Lors du développement du projet, le titre provisoire était The Sex Film Project. Selon le générique de fin, le script final a été adapté et écrit en collaboration avec les acteurs du projet. Le concept du salon est inspiré de façon lointaine d'une série d'événements appelés « Lusty Loft Parties » qui se sont déroulés à DUMBA (en) entre 1992 et 2002, ainsi que des « CineSalon » hebdomadaires, tous organisés par Stephen Kent Jusick, qui joue le rôle de Creamy dans le film.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film se situe dans le New York contemporain et tourne autour d'un personnage joué par la chanteuse canadienne Sook-Yin Lee (Lee avait fait un passage anonyme dans Hedwig and the Angry Inch). Lee joue Sofia, une femme mariée, thérapeute de couple et sexologue, qui n'a jamais elle-même eu d'orgasme. Elle rencontre un couple d'homosexuels, Jamie (PJ DeBoy) et James (Paul Dawson) ; ce dernier, ancien prostitué, suggère qu'ils ouvrent leur couple à d'autres partenaires.
 Lors de leur première consultation, Sofia craque et gifle Jamie. Le couple lui suggère de fréquenter une fête et orgie sexuelle hebdomadaire appelée Shortbus, animée par un travesti (Justin Bond (en) de Kiki and Herb (en)). Sofia s'ouvre peu à peu à une nouvelle sexualité, et devient l'amie d'une dominatrice surnommée Severin (qui a honte de s'appeler en réalité Jennifer Aniston).
@@ -555,7 +569,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Shortbus
@@ -571,7 +587,7 @@
 Production déléguée : John Cameron Mitchell, Morgan Night, Neil Westreich et Richard Wofford
 Sociétés de production : ThinkFilm (en) en association avec Fortissimo Films et Q Television
 Sociétés de distribution (télévision) : ThinkFilm (États-Unis) et BAC Films (France)
-Budget : 2 000 000 $ (estimation)[3]
+Budget : 2 000 000 $ (estimation)
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur —  35 mm (16 mm : Kodak Vision2 250D 7205) — 1,78:1 — son Dolby Digital
@@ -610,7 +626,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Sook-Yin Lee : Sofia
@@ -659,13 +677,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box office
-Box-office France : 123 644 entrées[5]
-Box-office Europe : 448 603 entrées[6]
-Box-office Etats-Unis : 295 057 entrées
-Conséquences sur Sook-Yin Lee
-Sook-Yin Lee a failli être licenciée par ses employeurs d'alors, la Société Radio-Canada, pour sa participation à un film dans lequel elle a des relations sexuelles non simulées ; finalement elle a gardé son poste en considération des réactions du public[7], mais aussi de célébrités comme Francis Ford Coppola, Michael Stipe et Yoko Ono[8].
-</t>
+          <t>Box office</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Box-office France : 123 644 entrées
+Box-office Europe : 448 603 entrées
+Box-office Etats-Unis : 295 057 entrées</t>
         </is>
       </c>
     </row>
@@ -690,14 +710,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conséquences sur Sook-Yin Lee</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sook-Yin Lee a failli être licenciée par ses employeurs d'alors, la Société Radio-Canada, pour sa participation à un film dans lequel elle a des relations sexuelles non simulées ; finalement elle a gardé son poste en considération des réactions du public, mais aussi de célébrités comme Francis Ford Coppola, Michael Stipe et Yoko Ono.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Shortbus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shortbus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La bande originale du film a été publiée par Team Love Records (en), le label de Conor Oberst (du groupe Bright Eyes). John Cameron Mitchell a réalisé le clip de First Day of My Life.
-Liste des pistes
-Scott Matthew - Upside Down
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande originale du film a été publiée par Team Love Records (en), le label de Conor Oberst (du groupe Bright Eyes). John Cameron Mitchell a réalisé le clip de First Day of My Life.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shortbus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shortbus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des pistes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Scott Matthew - Upside Down
 Azure Ray (en) - If You Fall
 Yo La Tengo - Wizard’s Sleeve
 Animal Collective - Winter’s Love
